--- a/lme_results/ug_T3/ug_f0.xlsx
+++ b/lme_results/ug_T3/ug_f0.xlsx
@@ -392,16 +392,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4.61268881737563</v>
+        <v>5.55954157615657</v>
       </c>
       <c r="C2" t="n">
-        <v>0.190339820828229</v>
+        <v>0.302997798995133</v>
       </c>
       <c r="D2" t="n">
-        <v>24.2339663729027</v>
+        <v>18.3484553174786</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000000000000000000000000000000000000000000205634864854064</v>
+        <v>0.00000000000000000000000000000000126938171766596</v>
       </c>
     </row>
     <row r="3">
@@ -409,16 +409,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.199870222606882</v>
+        <v>0.0366148925537197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.383669703622211</v>
+        <v>0.610755412255824</v>
       </c>
       <c r="D3" t="n">
-        <v>0.520943459230465</v>
+        <v>0.0599501728825991</v>
       </c>
       <c r="E3" t="n">
-        <v>0.603569438164936</v>
+        <v>0.952316172150894</v>
       </c>
     </row>
     <row r="4">
@@ -426,16 +426,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.612035750973739</v>
+        <v>-0.899849338922523</v>
       </c>
       <c r="C4" t="n">
-        <v>0.380834528459338</v>
+        <v>0.606242158905168</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.60709102047475</v>
+        <v>-1.48430676703116</v>
       </c>
       <c r="E4" t="n">
-        <v>0.111219284450574</v>
+        <v>0.140904579927302</v>
       </c>
     </row>
     <row r="5">
@@ -443,16 +443,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.292786329498232</v>
+        <v>0.690663905831003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.766215596676057</v>
+        <v>1.21972185503999</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.382120033536744</v>
+        <v>0.566247052946638</v>
       </c>
       <c r="E5" t="n">
-        <v>0.70319137161052</v>
+        <v>0.57250723343244</v>
       </c>
     </row>
   </sheetData>
